--- a/WordsDontComeEasy.xlsx
+++ b/WordsDontComeEasy.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n51630\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATOS\MBIT\Proyecto\MBITProject_Data4all\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="24375" windowHeight="9015"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="17640" windowHeight="6780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2220,7 +2220,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2232,6 +2232,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2258,745 +2266,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="74">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -3021,7 +2300,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3286,10 +2565,10 @@
   <dimension ref="A1:C698"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
@@ -3302,13 +2581,13 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -10961,7 +10240,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:A698">
-    <cfRule type="duplicateValues" dxfId="73" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
